--- a/biology/Botanique/Coupe-bordure/Coupe-bordure.xlsx
+++ b/biology/Botanique/Coupe-bordure/Coupe-bordure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Différents outils peuvent être utilisés pour améliorer les bordures d'une surface engazonnée.
 Il est possible d'utiliser des outils manuels de type coupe-bordure, en forme de demi-disque tranchant, ou des cisailles à gazon, mais aussi, pour de plus grandes surfaces des outils à moteur thermique  ou moteur électrique.
@@ -514,13 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Manuels
-Le coupe-bordure en demi-lune, ou dresse-bordure, est une sorte de bêche dont la lame métallique tranchante est en forme de demi-disque. Pour obtenir des bordures bien nette on découpe le gazon et la terre attenante en enfonçant l'outil avec le pied puis en opérant un mouvement de gauche à droite. La frange de sol ainsi découpée  est ensuite retirée à la main[1]
-La cisaille à gazon manuelle est formée de deux lames plane horizontales de 12 à 30 cm de long montées sur un manche court ou avec une rallonge extensible permettant alors de rester debout. Les cisailles sont simplement actionnées par la force d'une main[2]. La cisaille à gazon possède un système qui conserve les lames parfaitement horizontales quand on les actionne par un serrement vertical avec la main. Certaines cisailles à gazon ont un angle de coupe orientable qui permet de régler la position du poignet par rapport au mouvement des lames, afin de garantir un meilleur confort d'usage.
+          <t>Manuels</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coupe-bordure en demi-lune, ou dresse-bordure, est une sorte de bêche dont la lame métallique tranchante est en forme de demi-disque. Pour obtenir des bordures bien nette on découpe le gazon et la terre attenante en enfonçant l'outil avec le pied puis en opérant un mouvement de gauche à droite. La frange de sol ainsi découpée  est ensuite retirée à la main
+La cisaille à gazon manuelle est formée de deux lames plane horizontales de 12 à 30 cm de long montées sur un manche court ou avec une rallonge extensible permettant alors de rester debout. Les cisailles sont simplement actionnées par la force d'une main. La cisaille à gazon possède un système qui conserve les lames parfaitement horizontales quand on les actionne par un serrement vertical avec la main. Certaines cisailles à gazon ont un angle de coupe orientable qui permet de régler la position du poignet par rapport au mouvement des lames, afin de garantir un meilleur confort d'usage.
 Ces deux outils, insonores et précis permettent d'éviter les outils à moteurs plus ou moins bruyants.
-Motorisés
-Le coupe-bordure, aussi appelé rotofil, est un outil de jardinage servant à faucher l'herbe et les mauvaises herbes à l'aide de fils plastiques monofilaments rotatifs plutôt qu'un couteau ou des chaînes[3],[4]. Contrairement à une débroussailleuse, un coupe-bordure n'est pas prévu pour couper des broussailles, car les fils ne sont pas assez résistants et le moteur est moins puissant. Malgré cela, ils peuvent occasionner des dommages importants au collet des arbres et arbustes d'ornement lorsqu'ils sont utilisés sans discernement. Les rotofils peuvent être à moteur thermique ou électrique à fil ou à batterie
-La cisaille à gazon motorisée est une sorte de taille-haie de petite dimension. Sa barre de coupe comprend une lame mobile équipée de dents trapézoïdales et une lame animée d'un mouvement alternatif très rapide. La lame est aiguisée à l'aide d'un laser ou d'un diamant[2]. Le moteur peut-être thermique ou électrique à fil ou à batterie. Cet outil est relativement dangereux, un dispositif de sécurité interdit son emploi si les deux mains ne sont pas posées sur les poignées.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coupe-bordure</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coupe-bordure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différents outils</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Motorisés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le coupe-bordure, aussi appelé rotofil, est un outil de jardinage servant à faucher l'herbe et les mauvaises herbes à l'aide de fils plastiques monofilaments rotatifs plutôt qu'un couteau ou des chaînes,. Contrairement à une débroussailleuse, un coupe-bordure n'est pas prévu pour couper des broussailles, car les fils ne sont pas assez résistants et le moteur est moins puissant. Malgré cela, ils peuvent occasionner des dommages importants au collet des arbres et arbustes d'ornement lorsqu'ils sont utilisés sans discernement. Les rotofils peuvent être à moteur thermique ou électrique à fil ou à batterie
+La cisaille à gazon motorisée est une sorte de taille-haie de petite dimension. Sa barre de coupe comprend une lame mobile équipée de dents trapézoïdales et une lame animée d'un mouvement alternatif très rapide. La lame est aiguisée à l'aide d'un laser ou d'un diamant. Le moteur peut-être thermique ou électrique à fil ou à batterie. Cet outil est relativement dangereux, un dispositif de sécurité interdit son emploi si les deux mains ne sont pas posées sur les poignées.</t>
         </is>
       </c>
     </row>
